--- a/testcukefeatproc/src/test/resources/data/excel/excelone.xlsx
+++ b/testcukefeatproc/src/test/resources/data/excel/excelone.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15375" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
@@ -30,16 +31,16 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>Mounish</t>
-  </si>
-  <si>
-    <t>Saha</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Dee</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Tap</t>
   </si>
 </sst>
 </file>
@@ -373,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -387,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -398,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E8:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -426,10 +427,10 @@
     </row>
     <row r="9" spans="5:6">
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
